--- a/DATA_Agro_seguimiento_23_10.xlsx
+++ b/DATA_Agro_seguimiento_23_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Dropbox\Diseño DATA's\DATA-AGRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EE2FC6C-8E8E-409B-9386-30B17A197243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2408588D-1207-475D-9883-B0BC55D9B6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C11E770-CDEF-4BE2-A1B8-ADED6EF3E895}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="SegmentaciónDeDatos_Estado_Variables">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="107">
   <si>
     <t>AGROSTAT</t>
   </si>
@@ -73,9 +72,6 @@
     <t>Directorio empresas agroindustriales</t>
   </si>
   <si>
-    <t>Agro - Clima (mapa)</t>
-  </si>
-  <si>
     <t>Índices de Vegetación</t>
   </si>
   <si>
@@ -88,30 +84,12 @@
     <t>Eto</t>
   </si>
   <si>
-    <t>Agro - Clima (boletines)</t>
-  </si>
-  <si>
-    <t>INIA</t>
-  </si>
-  <si>
-    <t>Oferta Hídrica</t>
-  </si>
-  <si>
     <t>Sequía meteorológica</t>
   </si>
   <si>
-    <t>GEI - AFOLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agro - Gestión (Manejo) </t>
-  </si>
-  <si>
     <t>Fertilización</t>
   </si>
   <si>
-    <t>Riego</t>
-  </si>
-  <si>
     <t>Sistema de producción</t>
   </si>
   <si>
@@ -329,6 +307,66 @@
   </si>
   <si>
     <t>importanciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapas </t>
+  </si>
+  <si>
+    <t>Geomática agrícola</t>
+  </si>
+  <si>
+    <t>Geomática agrícola (aplicación monitoreo suelo-vegetación-agua)</t>
+  </si>
+  <si>
+    <t>Boletines agroclimáticos</t>
+  </si>
+  <si>
+    <t>Oferta hídrica</t>
+  </si>
+  <si>
+    <t>Índices sequía</t>
+  </si>
+  <si>
+    <t>Geomática agrícola (aplicación riego inteligente)</t>
+  </si>
+  <si>
+    <t>Calculo fertilización</t>
+  </si>
+  <si>
+    <t>directorios empresas agroquímicas</t>
+  </si>
+  <si>
+    <t>Cultivos</t>
+  </si>
+  <si>
+    <t>Fichas de cultivos</t>
+  </si>
+  <si>
+    <t>Directorio de recepción envases vacíos</t>
+  </si>
+  <si>
+    <t>Directorio empresas que producen purines</t>
+  </si>
+  <si>
+    <t>Directorio empresas que producen compost o tierra de horas</t>
+  </si>
+  <si>
+    <t>Calendario fechas de quema</t>
+  </si>
+  <si>
+    <t>Gestión (Manejo) Agrícola</t>
+  </si>
+  <si>
+    <t>Directorio empresas maquinaria agrícola</t>
+  </si>
+  <si>
+    <t>Maquinaria agrícola</t>
+  </si>
+  <si>
+    <t>Selección c ultivos</t>
+  </si>
+  <si>
+    <t>Gestión (Manejo) Agrícola (aplicación selección cultivos)</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A13944F0-234A-4503-A7F2-6C4FBEBEEC61}" name="Tabla2" displayName="Tabla2" ref="B10:J74" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="B10:J74" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A13944F0-234A-4503-A7F2-6C4FBEBEEC61}" name="Tabla2" displayName="Tabla2" ref="B10:J79" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B10:J79" xr:uid="{45BD2C9C-AD7C-42F0-B565-2635170566FB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9FCEE587-D097-4CD5-9E23-CBA7CF333ED6}" name="N°" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{C7508CA6-6908-4EB2-99B2-30F465983231}" name="DATA" dataDxfId="32"/>
@@ -1629,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB3C2C0-1C42-4C1E-9F72-A328D2452D47}">
-  <dimension ref="B10:J74"/>
+  <dimension ref="B10:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1652,42 +1690,42 @@
   <sheetData>
     <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
@@ -1696,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>1</v>
@@ -1705,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>16</v>
       </c>
@@ -1716,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>1</v>
@@ -1725,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>1</v>
@@ -1734,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>16</v>
       </c>
@@ -1745,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>1</v>
@@ -1754,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>1</v>
@@ -1763,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1774,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>1</v>
@@ -1783,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>1</v>
@@ -1792,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1803,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>1</v>
@@ -1812,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>1</v>
@@ -1821,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1832,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1</v>
@@ -1841,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>1</v>
@@ -1850,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -1861,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>1</v>
@@ -1882,16 +1920,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>1</v>
@@ -1909,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>1</v>
@@ -1936,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>1</v>
@@ -1963,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>1</v>
@@ -1990,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>1</v>
@@ -2017,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>1</v>
@@ -2044,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>1</v>
@@ -2071,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>1</v>
@@ -2098,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>1</v>
@@ -2125,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>1</v>
@@ -2152,16 +2190,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>1</v>
@@ -2179,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>1</v>
@@ -2206,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>1</v>
@@ -2224,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -2235,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2258,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2281,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2304,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2327,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2350,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2373,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2396,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2419,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2442,16 +2480,16 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2465,16 +2503,16 @@
         <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2488,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2511,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2534,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2555,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="4"/>
@@ -2576,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="4"/>
@@ -2597,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2618,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -2639,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2660,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2681,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2702,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2723,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2744,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2765,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2786,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -2807,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -2828,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -2849,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="4" t="s">
@@ -2865,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
@@ -2876,22 +2914,24 @@
         <v>0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <v>16</v>
       </c>
@@ -2899,15 +2939,17 @@
         <v>0</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2958,7 @@
       </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <v>16</v>
       </c>
@@ -2924,15 +2966,17 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H62" s="4" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2985,7 @@
       </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <v>16</v>
       </c>
@@ -2949,15 +2993,17 @@
         <v>0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H63" s="4" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +3012,7 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <v>16</v>
       </c>
@@ -2974,21 +3020,19 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
@@ -2999,16 +3043,20 @@
         <v>0</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="I65" s="4" t="s">
         <v>3</v>
       </c>
@@ -3022,19 +3070,17 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
@@ -3045,19 +3091,17 @@
         <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
@@ -3068,15 +3112,17 @@
         <v>0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4" t="s">
         <v>3</v>
@@ -3091,15 +3137,17 @@
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4" t="s">
         <v>3</v>
@@ -3114,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" s="4"/>
-      <c r="I70" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
@@ -3137,19 +3185,19 @@
         <v>0</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="H71" s="4"/>
-      <c r="I71" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
@@ -3160,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3183,15 +3231,17 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4" t="s">
         <v>3</v>
@@ -3206,20 +3256,133 @@
         <v>0</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3">
+        <v>16</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <v>16</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <v>16</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>16</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="3">
+        <v>16</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3244,7 +3407,7 @@
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H58 H61:H74">
+  <conditionalFormatting sqref="H13:H58 H61:H79">
     <cfRule type="cellIs" dxfId="19" priority="49" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
@@ -3252,7 +3415,7 @@
       <formula>"En proceso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E13 E18:E74">
+  <conditionalFormatting sqref="E11:E13 E18:E79">
     <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
